--- a/4. Efecto Hall/CompleteData/Datos_Temp_p.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_p.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA1340-E38E-4EDE-BACC-49D6A7C60584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>I=0</t>
+  </si>
+  <si>
+    <t>T [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_H </t>
+  </si>
+  <si>
+    <t>V_L</t>
+  </si>
+  <si>
+    <t>I=1.4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +356,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>-0.1</v>
+      </c>
+      <c r="C3">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>41.6</v>
+      </c>
+      <c r="G3">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>-0.1</v>
+      </c>
+      <c r="C4">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>41.7</v>
+      </c>
+      <c r="G4">
+        <v>1.1259999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>-0.2</v>
+      </c>
+      <c r="C5">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>41.8</v>
+      </c>
+      <c r="G5">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>-0.1</v>
+      </c>
+      <c r="C6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>41.8</v>
+      </c>
+      <c r="G6">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1.129</v>
+      </c>
+      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>41.9</v>
+      </c>
+      <c r="G7">
+        <v>1.165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.141</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>41.9</v>
+      </c>
+      <c r="G8">
+        <v>1.1759999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>41.9</v>
+      </c>
+      <c r="G9">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>1.171</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>41.9</v>
+      </c>
+      <c r="G10">
+        <v>1.206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>41.8</v>
+      </c>
+      <c r="G11">
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>1.194</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>41.7</v>
+      </c>
+      <c r="G12">
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="E13">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>41.5</v>
+      </c>
+      <c r="G13">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>41.3</v>
+      </c>
+      <c r="G14">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+      <c r="C15">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>0.3</v>
+      </c>
+      <c r="C16">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>40.6</v>
+      </c>
+      <c r="G16">
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+      <c r="C17">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="E17">
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <v>40.1</v>
+      </c>
+      <c r="G17">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
+      </c>
+      <c r="F18">
+        <v>39.5</v>
+      </c>
+      <c r="G18">
+        <v>1.2909999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>0.6</v>
+      </c>
+      <c r="C19">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="E19">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>0.6</v>
+      </c>
+      <c r="C20">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="E20">
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>1.288</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>37.5</v>
+      </c>
+      <c r="G21">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>0.6</v>
+      </c>
+      <c r="C22">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>36.6</v>
+      </c>
+      <c r="G22">
+        <v>1.3049999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="F23">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G23">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="C24">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>34.1</v>
+      </c>
+      <c r="G24">
+        <v>1.3009999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>1.292</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>32.9</v>
+      </c>
+      <c r="G25">
+        <v>1.2969999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>0.6</v>
+      </c>
+      <c r="C26">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <v>31.2</v>
+      </c>
+      <c r="G26">
+        <v>1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>0.6</v>
+      </c>
+      <c r="C27">
+        <v>1.276</v>
+      </c>
+      <c r="E27">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>29.7</v>
+      </c>
+      <c r="G27">
+        <v>1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+      <c r="C28">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="E28">
+        <v>91</v>
+      </c>
+      <c r="F28">
+        <v>27.9</v>
+      </c>
+      <c r="G28">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="E29">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>26.1</v>
+      </c>
+      <c r="G29">
+        <v>1.2470000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>0.5</v>
+      </c>
+      <c r="C30">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="E30">
+        <v>95</v>
+      </c>
+      <c r="F30">
+        <v>23.7</v>
+      </c>
+      <c r="G30">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>0.4</v>
+      </c>
+      <c r="C31">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="E31">
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <v>22.2</v>
+      </c>
+      <c r="G31">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>0.4</v>
+      </c>
+      <c r="C32">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="E32">
+        <v>99</v>
+      </c>
+      <c r="F32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1.179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <v>0.3</v>
+      </c>
+      <c r="C33">
+        <v>1.173</v>
+      </c>
+      <c r="E33">
+        <v>101</v>
+      </c>
+      <c r="F33">
+        <v>18.2</v>
+      </c>
+      <c r="G33">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E34">
+        <v>103</v>
+      </c>
+      <c r="F34">
+        <v>15.9</v>
+      </c>
+      <c r="G34">
+        <v>1.1220000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>1.105</v>
+      </c>
+      <c r="E35">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <v>13.1</v>
+      </c>
+      <c r="G35">
+        <v>1.0840000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1.07</v>
+      </c>
+      <c r="E36">
+        <v>107</v>
+      </c>
+      <c r="F36">
+        <v>11.7</v>
+      </c>
+      <c r="G36">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1.048</v>
+      </c>
+      <c r="E37">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>10.3</v>
+      </c>
+      <c r="G37">
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="E38">
+        <v>111</v>
+      </c>
+      <c r="F38">
+        <v>8.5</v>
+      </c>
+      <c r="G38">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>-0.1</v>
+      </c>
+      <c r="C39">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E39">
+        <v>113</v>
+      </c>
+      <c r="F39">
+        <v>6.5</v>
+      </c>
+      <c r="G39">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>-0.2</v>
+      </c>
+      <c r="C40">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="E40">
+        <v>115</v>
+      </c>
+      <c r="F40">
+        <v>5.5</v>
+      </c>
+      <c r="G40">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>-0.3</v>
+      </c>
+      <c r="C41">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E41">
+        <v>117</v>
+      </c>
+      <c r="F41">
+        <v>3.7</v>
+      </c>
+      <c r="G41">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <v>-0.4</v>
+      </c>
+      <c r="C42">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E42">
+        <v>119</v>
+      </c>
+      <c r="F42">
+        <v>2.7</v>
+      </c>
+      <c r="G42">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>121</v>
+      </c>
+      <c r="B43">
+        <v>-0.4</v>
+      </c>
+      <c r="C43">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E43">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <v>1.3</v>
+      </c>
+      <c r="G43">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>-0.5</v>
+      </c>
+      <c r="C44">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E44">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>-0.6</v>
+      </c>
+      <c r="C45">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E45">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>-0.3</v>
+      </c>
+      <c r="G45">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>127</v>
+      </c>
+      <c r="B46">
+        <v>-0.7</v>
+      </c>
+      <c r="C46">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="E46">
+        <v>127</v>
+      </c>
+      <c r="F46">
+        <v>-1.3</v>
+      </c>
+      <c r="G46">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>-0.7</v>
+      </c>
+      <c r="C47">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="E47">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>-1.7</v>
+      </c>
+      <c r="G47">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>131</v>
+      </c>
+      <c r="B48">
+        <v>-0.8</v>
+      </c>
+      <c r="C48">
+        <v>0.621</v>
+      </c>
+      <c r="E48">
+        <v>131</v>
+      </c>
+      <c r="F48">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>-0.9</v>
+      </c>
+      <c r="C49">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E49">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>-2.8</v>
+      </c>
+      <c r="G49">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>-0.9</v>
+      </c>
+      <c r="C50">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E50">
+        <v>135</v>
+      </c>
+      <c r="F50">
+        <v>-3.1</v>
+      </c>
+      <c r="G50">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>137</v>
+      </c>
+      <c r="B51">
+        <v>-1</v>
+      </c>
+      <c r="C51">
+        <v>0.54</v>
+      </c>
+      <c r="E51">
+        <v>137</v>
+      </c>
+      <c r="F51">
+        <v>-3.3</v>
+      </c>
+      <c r="G51">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <v>-1</v>
+      </c>
+      <c r="C52">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E52">
+        <v>139</v>
+      </c>
+      <c r="F52">
+        <v>-3.5</v>
+      </c>
+      <c r="G52">
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4. Efecto Hall/CompleteData/Datos_Temp_p.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_p.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\Hall\Intermedio\4. Efecto Hall\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA1340-E38E-4EDE-BACC-49D6A7C60584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1C394C-EC7A-44F6-A5FA-4AAE60662716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>I=0</t>
   </si>
@@ -33,13 +33,19 @@
     <t>T [°C]</t>
   </si>
   <si>
-    <t xml:space="preserve">V_H </t>
+    <t>I=1.4</t>
   </si>
   <si>
-    <t>V_L</t>
+    <t>VH err</t>
   </si>
   <si>
-    <t>I=1.4</t>
+    <t>VL err</t>
+  </si>
+  <si>
+    <t>V_H [mV]</t>
+  </si>
+  <si>
+    <t>V_L [V]</t>
   </si>
 </sst>
 </file>
@@ -357,43 +363,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41</v>
       </c>
@@ -403,17 +421,29 @@
       <c r="C3">
         <v>1.0660000000000001</v>
       </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
       <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>41.6</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -423,17 +453,29 @@
       <c r="C4">
         <v>1.0840000000000001</v>
       </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
       <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4">
         <v>43</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>41.7</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1.1259999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45</v>
       </c>
@@ -443,17 +485,29 @@
       <c r="C5">
         <v>1.1040000000000001</v>
       </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
       <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="G5">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>41.8</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1.135</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>47</v>
       </c>
@@ -463,17 +517,29 @@
       <c r="C6">
         <v>1.1100000000000001</v>
       </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
       <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6">
         <v>47</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>41.8</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1.151</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>49</v>
       </c>
@@ -483,17 +549,29 @@
       <c r="C7">
         <v>1.129</v>
       </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
       <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="G7">
         <v>49</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>41.9</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.165</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -503,17 +581,29 @@
       <c r="C8">
         <v>1.141</v>
       </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
       <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="G8">
         <v>51</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>41.9</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1.1759999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53</v>
       </c>
@@ -523,17 +613,29 @@
       <c r="C9">
         <v>1.1599999999999999</v>
       </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
       <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9">
         <v>53</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>41.9</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.1919999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>55</v>
       </c>
@@ -543,17 +645,29 @@
       <c r="C10">
         <v>1.171</v>
       </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
       <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10">
         <v>55</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>41.9</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.206</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57</v>
       </c>
@@ -563,17 +677,29 @@
       <c r="C11">
         <v>1.1839999999999999</v>
       </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
       <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="G11">
         <v>57</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>41.8</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.2150000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59</v>
       </c>
@@ -583,17 +709,29 @@
       <c r="C12">
         <v>1.194</v>
       </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
       <c r="E12">
+        <v>1E-3</v>
+      </c>
+      <c r="G12">
         <v>59</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>41.7</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1.2250000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
@@ -603,17 +741,29 @@
       <c r="C13">
         <v>1.2110000000000001</v>
       </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
       <c r="E13">
+        <v>1E-3</v>
+      </c>
+      <c r="G13">
         <v>61</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>41.5</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>63</v>
       </c>
@@ -623,17 +773,29 @@
       <c r="C14">
         <v>1.2210000000000001</v>
       </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
       <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="G14">
         <v>63</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>41.3</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1.254</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -643,17 +805,29 @@
       <c r="C15">
         <v>1.2350000000000001</v>
       </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
       <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="G15">
         <v>65</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>41</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1.264</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>67</v>
       </c>
@@ -663,17 +837,29 @@
       <c r="C16">
         <v>1.2310000000000001</v>
       </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
       <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="G16">
         <v>67</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>40.6</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1.2749999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>69</v>
       </c>
@@ -683,17 +869,29 @@
       <c r="C17">
         <v>1.2569999999999999</v>
       </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
       <c r="E17">
+        <v>1E-3</v>
+      </c>
+      <c r="G17">
         <v>69</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>40.1</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1.2829999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71</v>
       </c>
@@ -703,17 +901,29 @@
       <c r="C18">
         <v>1.2609999999999999</v>
       </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
       <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18">
         <v>71</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>39.5</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1.2909999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
@@ -723,17 +933,29 @@
       <c r="C19">
         <v>1.2729999999999999</v>
       </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
       <c r="E19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19">
         <v>73</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>39</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1.296</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>75</v>
       </c>
@@ -743,17 +965,29 @@
       <c r="C20">
         <v>1.2869999999999999</v>
       </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
       <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="G20">
         <v>75</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>38.299999999999997</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>77</v>
       </c>
@@ -763,17 +997,29 @@
       <c r="C21">
         <v>1.288</v>
       </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
       <c r="E21">
+        <v>1E-3</v>
+      </c>
+      <c r="G21">
         <v>77</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>37.5</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1.304</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>79</v>
       </c>
@@ -783,17 +1029,29 @@
       <c r="C22">
         <v>1.2949999999999999</v>
       </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
       <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="G22">
         <v>79</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>36.6</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1.3049999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>81</v>
       </c>
@@ -803,17 +1061,29 @@
       <c r="C23">
         <v>1.2929999999999999</v>
       </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
       <c r="E23">
+        <v>1E-3</v>
+      </c>
+      <c r="G23">
         <v>81</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>35.200000000000003</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1.304</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>83</v>
       </c>
@@ -823,17 +1093,29 @@
       <c r="C24">
         <v>1.2929999999999999</v>
       </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
       <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="G24">
         <v>83</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>34.1</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1.3009999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -843,17 +1125,29 @@
       <c r="C25">
         <v>1.292</v>
       </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
       <c r="E25">
+        <v>1E-3</v>
+      </c>
+      <c r="G25">
         <v>85</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>32.9</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1.2969999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -863,17 +1157,29 @@
       <c r="C26">
         <v>1.2849999999999999</v>
       </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
       <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="G26">
         <v>87</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>31.2</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1.2869999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>89</v>
       </c>
@@ -883,17 +1189,29 @@
       <c r="C27">
         <v>1.276</v>
       </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
       <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="G27">
         <v>89</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>29.7</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>1.2769999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>91</v>
       </c>
@@ -903,17 +1221,29 @@
       <c r="C28">
         <v>1.2649999999999999</v>
       </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
       <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="G28">
         <v>91</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>27.9</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>1.264</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>93</v>
       </c>
@@ -923,17 +1253,29 @@
       <c r="C29">
         <v>1.2529999999999999</v>
       </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
       <c r="E29">
+        <v>1E-3</v>
+      </c>
+      <c r="G29">
         <v>93</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>26.1</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>1.2470000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95</v>
       </c>
@@ -943,17 +1285,29 @@
       <c r="C30">
         <v>1.2350000000000001</v>
       </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
       <c r="E30">
+        <v>1E-3</v>
+      </c>
+      <c r="G30">
         <v>95</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>23.7</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>1.222</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>97</v>
       </c>
@@ -963,17 +1317,29 @@
       <c r="C31">
         <v>1.2709999999999999</v>
       </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
       <c r="E31">
+        <v>1E-3</v>
+      </c>
+      <c r="G31">
         <v>97</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>22.2</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>1.204</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>99</v>
       </c>
@@ -983,17 +1349,29 @@
       <c r="C32">
         <v>1.1930000000000001</v>
       </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
       <c r="E32">
+        <v>1E-3</v>
+      </c>
+      <c r="G32">
         <v>99</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>20.100000000000001</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>1.179</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>101</v>
       </c>
@@ -1003,17 +1381,29 @@
       <c r="C33">
         <v>1.173</v>
       </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
       <c r="E33">
+        <v>1E-3</v>
+      </c>
+      <c r="G33">
         <v>101</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>18.2</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>1.157</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -1023,17 +1413,29 @@
       <c r="C34">
         <v>1.1359999999999999</v>
       </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
       <c r="E34">
+        <v>1E-3</v>
+      </c>
+      <c r="G34">
         <v>103</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>15.9</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>1.1220000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>105</v>
       </c>
@@ -1043,17 +1445,29 @@
       <c r="C35">
         <v>1.105</v>
       </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
       <c r="E35">
+        <v>1E-3</v>
+      </c>
+      <c r="G35">
         <v>105</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>13.1</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>1.0840000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>107</v>
       </c>
@@ -1063,17 +1477,29 @@
       <c r="C36">
         <v>1.07</v>
       </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
       <c r="E36">
+        <v>1E-3</v>
+      </c>
+      <c r="G36">
         <v>107</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>11.7</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>1.052</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>109</v>
       </c>
@@ -1083,17 +1509,29 @@
       <c r="C37">
         <v>1.048</v>
       </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
       <c r="E37">
+        <v>1E-3</v>
+      </c>
+      <c r="G37">
         <v>109</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>10.3</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>1.0149999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>111</v>
       </c>
@@ -1103,17 +1541,29 @@
       <c r="C38">
         <v>1.0069999999999999</v>
       </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
       <c r="E38">
+        <v>1E-3</v>
+      </c>
+      <c r="G38">
         <v>111</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>8.5</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.98399999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+      <c r="K38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>113</v>
       </c>
@@ -1123,17 +1573,29 @@
       <c r="C39">
         <v>0.96299999999999997</v>
       </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
       <c r="E39">
+        <v>1E-3</v>
+      </c>
+      <c r="G39">
         <v>113</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>6.5</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>115</v>
       </c>
@@ -1143,17 +1605,29 @@
       <c r="C40">
         <v>0.92300000000000004</v>
       </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
       <c r="E40">
+        <v>1E-3</v>
+      </c>
+      <c r="G40">
         <v>115</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>5.5</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>0.91700000000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>117</v>
       </c>
@@ -1163,17 +1637,29 @@
       <c r="C41">
         <v>0.88700000000000001</v>
       </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
       <c r="E41">
+        <v>1E-3</v>
+      </c>
+      <c r="G41">
         <v>117</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>3.7</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>119</v>
       </c>
@@ -1183,17 +1669,29 @@
       <c r="C42">
         <v>0.84599999999999997</v>
       </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
       <c r="E42">
+        <v>1E-3</v>
+      </c>
+      <c r="G42">
         <v>119</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>2.7</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>121</v>
       </c>
@@ -1203,17 +1701,29 @@
       <c r="C43">
         <v>0.81200000000000006</v>
       </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
       <c r="E43">
+        <v>1E-3</v>
+      </c>
+      <c r="G43">
         <v>121</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>1.3</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>123</v>
       </c>
@@ -1223,17 +1733,29 @@
       <c r="C44">
         <v>0.77400000000000002</v>
       </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
       <c r="E44">
+        <v>1E-3</v>
+      </c>
+      <c r="G44">
         <v>123</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>0.5</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>0.75700000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+      <c r="K44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>125</v>
       </c>
@@ -1243,17 +1765,29 @@
       <c r="C45">
         <v>0.73299999999999998</v>
       </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
       <c r="E45">
+        <v>1E-3</v>
+      </c>
+      <c r="G45">
         <v>125</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>-0.3</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>127</v>
       </c>
@@ -1263,17 +1797,29 @@
       <c r="C46">
         <v>0.69099999999999995</v>
       </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
       <c r="E46">
+        <v>1E-3</v>
+      </c>
+      <c r="G46">
         <v>127</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>-1.3</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+      <c r="K46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>129</v>
       </c>
@@ -1283,17 +1829,29 @@
       <c r="C47">
         <v>0.66100000000000003</v>
       </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
       <c r="E47">
+        <v>1E-3</v>
+      </c>
+      <c r="G47">
         <v>129</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>-1.7</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0.65600000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="K47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>131</v>
       </c>
@@ -1303,17 +1861,29 @@
       <c r="C48">
         <v>0.621</v>
       </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
       <c r="E48">
+        <v>1E-3</v>
+      </c>
+      <c r="G48">
         <v>131</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>0.624</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0.1</v>
+      </c>
+      <c r="K48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>133</v>
       </c>
@@ -1323,17 +1893,29 @@
       <c r="C49">
         <v>0.59399999999999997</v>
       </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
       <c r="E49">
+        <v>1E-3</v>
+      </c>
+      <c r="G49">
         <v>133</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>-2.8</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>135</v>
       </c>
@@ -1343,17 +1925,29 @@
       <c r="C50">
         <v>0.55200000000000005</v>
       </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
       <c r="E50">
+        <v>1E-3</v>
+      </c>
+      <c r="G50">
         <v>135</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>-3.1</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0.1</v>
+      </c>
+      <c r="K50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>137</v>
       </c>
@@ -1363,17 +1957,29 @@
       <c r="C51">
         <v>0.54</v>
       </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
       <c r="E51">
+        <v>1E-3</v>
+      </c>
+      <c r="G51">
         <v>137</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>-3.3</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0.1</v>
+      </c>
+      <c r="K51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>139</v>
       </c>
@@ -1383,14 +1989,26 @@
       <c r="C52">
         <v>0.51100000000000001</v>
       </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
       <c r="E52">
+        <v>1E-3</v>
+      </c>
+      <c r="G52">
         <v>139</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>-3.5</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.55600000000000005</v>
+      </c>
+      <c r="J52">
+        <v>0.1</v>
+      </c>
+      <c r="K52">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
